--- a/2024/shuffle-architecute/Teste10/content/results/metrics_1_2.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_1_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,889 +488,926 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_23</t>
+          <t>model_1_2_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8777659653872977</v>
+        <v>0.8899449408788688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7319532892473856</v>
+        <v>0.7290861251091247</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5761742206256297</v>
+        <v>0.5583705839966455</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8276124259675346</v>
+        <v>0.8601657038944444</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7100622759443502</v>
+        <v>0.7836276369460561</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5129900574684143</v>
+        <v>0.4618775248527527</v>
       </c>
       <c r="H2" t="n">
-        <v>1.792429685592651</v>
+        <v>1.811602354049683</v>
       </c>
       <c r="I2" t="n">
-        <v>1.110533356666565</v>
+        <v>1.445008277893066</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5135414004325867</v>
+        <v>0.8079040050506592</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8120371699333191</v>
+        <v>1.126456141471863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_22</t>
+          <t>model_1_2_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8786640039099054</v>
+        <v>0.8898907807179126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7312547396259136</v>
+        <v>0.7290395365132881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5857878837838237</v>
+        <v>0.5614862384323887</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8378392645754082</v>
+        <v>0.860381605960449</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7199982074217909</v>
+        <v>0.7847265239844264</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5092211961746216</v>
+        <v>0.4621047973632812</v>
       </c>
       <c r="H3" t="n">
-        <v>1.797100782394409</v>
+        <v>1.811913967132568</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0853431224823</v>
+        <v>1.434813976287842</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4830757081508636</v>
+        <v>0.8066565990447998</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7842093706130981</v>
+        <v>1.120735287666321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_21</t>
+          <t>model_1_2_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8795734700713235</v>
+        <v>0.8898277885229746</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7305244933626417</v>
+        <v>0.7289843375173382</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5957809934175682</v>
+        <v>0.5646285844825021</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8480509139779726</v>
+        <v>0.8605871938087881</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7301036653556507</v>
+        <v>0.7858281463528897</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5054044127464294</v>
+        <v>0.4623692035675049</v>
       </c>
       <c r="H4" t="n">
-        <v>1.801983952522278</v>
+        <v>1.812283039093018</v>
       </c>
       <c r="I4" t="n">
-        <v>1.059158563613892</v>
+        <v>1.424532175064087</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4526552855968475</v>
+        <v>0.8054687976837158</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7559067010879517</v>
+        <v>1.115000128746033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_20</t>
+          <t>model_1_2_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.880492082417577</v>
+        <v>0.8897553845603593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7297596740376507</v>
+        <v>0.7289202387779253</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6061635375957677</v>
+        <v>0.5677970412076634</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8582236840138985</v>
+        <v>0.8607817564092261</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7403704330073545</v>
+        <v>0.7869316421004494</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5015491247177124</v>
+        <v>0.4626730382442474</v>
       </c>
       <c r="H5" t="n">
-        <v>1.807098269462585</v>
+        <v>1.812711596488953</v>
       </c>
       <c r="I5" t="n">
-        <v>1.031953573226929</v>
+        <v>1.414165019989014</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4223507046699524</v>
+        <v>0.804344654083252</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7271522283554077</v>
+        <v>1.109255194664001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_19</t>
+          <t>model_1_2_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8814168573544575</v>
+        <v>0.8896733972137714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7289571856634834</v>
+        <v>0.7288470085211964</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6169410896617595</v>
+        <v>0.5709912118271695</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8683309644406892</v>
+        <v>0.8609648166860193</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7507873219762756</v>
+        <v>0.7880370563023056</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4976680874824524</v>
+        <v>0.4630171656608582</v>
       </c>
       <c r="H6" t="n">
-        <v>1.812464475631714</v>
+        <v>1.813201308250427</v>
       </c>
       <c r="I6" t="n">
-        <v>1.003713607788086</v>
+        <v>1.403713703155518</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3922411501407623</v>
+        <v>0.8032870292663574</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6979773640632629</v>
+        <v>1.103500366210938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_18</t>
+          <t>model_1_2_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.882344372764837</v>
+        <v>0.8895813536329759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7281137049905356</v>
+        <v>0.7287643413868591</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6281168102011303</v>
+        <v>0.5742107063915491</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8783443223049585</v>
+        <v>0.861135948804212</v>
       </c>
       <c r="F7" t="n">
-        <v>0.761340497849089</v>
+        <v>0.7891437475389135</v>
       </c>
       <c r="G7" t="n">
-        <v>0.493775486946106</v>
+        <v>0.4634034335613251</v>
       </c>
       <c r="H7" t="n">
-        <v>1.818104982376099</v>
+        <v>1.813754081726074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9744303226470947</v>
+        <v>1.393179655075073</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3624114394187927</v>
+        <v>0.8022983074188232</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6684207916259766</v>
+        <v>1.097738742828369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_17</t>
+          <t>model_1_2_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8832709345036212</v>
+        <v>0.8894788211719936</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7272256350542288</v>
+        <v>0.7286719994005944</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6396934391463089</v>
+        <v>0.5774546727046579</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8882333558269973</v>
+        <v>0.8612943895980958</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7720149781369138</v>
+        <v>0.7902511588771168</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4898868799209595</v>
+        <v>0.4638336896896362</v>
       </c>
       <c r="H8" t="n">
-        <v>1.82404351234436</v>
+        <v>1.814371585845947</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9440965056419373</v>
+        <v>1.382565259933472</v>
       </c>
       <c r="J8" t="n">
-        <v>0.332952082157135</v>
+        <v>0.8013828992843628</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6385244131088257</v>
+        <v>1.091973543167114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_16</t>
+          <t>model_1_2_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8841915388123474</v>
+        <v>0.8893652639760619</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7262891343293958</v>
+        <v>0.7285696425233261</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6516664864646829</v>
+        <v>0.5807225050639593</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8979639589527252</v>
+        <v>0.8614398384522054</v>
       </c>
       <c r="F9" t="n">
-        <v>0.782790774112966</v>
+        <v>0.7913585868317127</v>
       </c>
       <c r="G9" t="n">
-        <v>0.486023336648941</v>
+        <v>0.4643102884292603</v>
       </c>
       <c r="H9" t="n">
-        <v>1.830305814743042</v>
+        <v>1.815056085586548</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9127240777015686</v>
+        <v>1.371873021125793</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3039646446704865</v>
+        <v>0.8005425930023193</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6083443164825439</v>
+        <v>1.08620810508728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_15</t>
+          <t>model_1_2_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8851012676912215</v>
+        <v>0.8892405142588803</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7253001500208132</v>
+        <v>0.7284570215908325</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6640311004276795</v>
+        <v>0.5840135146535983</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9075004546429172</v>
+        <v>0.8615717282616074</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7936464481093208</v>
+        <v>0.7924659665922655</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4822053611278534</v>
+        <v>0.4648338258266449</v>
       </c>
       <c r="H10" t="n">
-        <v>1.836919188499451</v>
+        <v>1.81580924987793</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8803255558013916</v>
+        <v>1.361104846000671</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2755555212497711</v>
+        <v>0.799780547618866</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5779405236244202</v>
+        <v>1.080442905426025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_14</t>
+          <t>model_1_2_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.885993986373937</v>
+        <v>0.8891039768278433</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7242543031293979</v>
+        <v>0.7283338212732584</v>
       </c>
       <c r="D11" t="n">
-        <v>0.676775889323047</v>
+        <v>0.5873271635140854</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9168054273133085</v>
+        <v>0.861689307553045</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8045568472569987</v>
+        <v>0.7935725682457179</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4784588217735291</v>
+        <v>0.4654068648815155</v>
       </c>
       <c r="H11" t="n">
-        <v>1.843912839889526</v>
+        <v>1.816632986068726</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8469309210777283</v>
+        <v>1.350262641906738</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2478360682725906</v>
+        <v>0.7991012334823608</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5473834276199341</v>
+        <v>1.074681878089905</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_13</t>
+          <t>model_1_2_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8868626052015832</v>
+        <v>0.8889551696889858</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7231471545561643</v>
+        <v>0.7281997566412768</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6898829902308463</v>
+        <v>0.5906626785777092</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9258365615300952</v>
+        <v>0.861791890121637</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8154911245307066</v>
+        <v>0.7946776105947327</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4748134613037109</v>
+        <v>0.4660313725471497</v>
       </c>
       <c r="H12" t="n">
-        <v>1.851316332817078</v>
+        <v>1.817529559135437</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8125869035720825</v>
+        <v>1.339348793029785</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2209323942661285</v>
+        <v>0.7985085248947144</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5167595148086548</v>
+        <v>1.068928956985474</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_12</t>
+          <t>model_1_2_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8876991470722881</v>
+        <v>0.888793616606612</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7219739418195119</v>
+        <v>0.7280544833276658</v>
       </c>
       <c r="D13" t="n">
-        <v>0.703328335730349</v>
+        <v>0.5940189514771397</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9345505072350082</v>
+        <v>0.861879099583689</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8264147861192455</v>
+        <v>0.795780746968471</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4713026881217957</v>
+        <v>0.4667093753814697</v>
       </c>
       <c r="H13" t="n">
-        <v>1.859161615371704</v>
+        <v>1.818500995635986</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7773566246032715</v>
+        <v>1.328367114067078</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1949735879898071</v>
+        <v>0.798004686832428</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4861652851104736</v>
+        <v>1.063185930252075</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_11</t>
+          <t>model_1_2_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8884943660629825</v>
+        <v>0.8886189164099704</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7207299817851389</v>
+        <v>0.7278977050158326</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7170779141388521</v>
+        <v>0.597395538751591</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9429005707458298</v>
+        <v>0.8619502245953885</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8372874269932039</v>
+        <v>0.7968813133259329</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4679652750492096</v>
+        <v>0.4674426019191742</v>
       </c>
       <c r="H14" t="n">
-        <v>1.867479920387268</v>
+        <v>1.819549322128296</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7413291335105896</v>
+        <v>1.317318916320801</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1700988113880157</v>
+        <v>0.7975937724113464</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4557139575481415</v>
+        <v>1.057456254959106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_10</t>
+          <t>model_1_2_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8892379257593336</v>
+        <v>0.8884304899012855</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7194104064669584</v>
+        <v>0.72772908261693</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7310918413347244</v>
+        <v>0.6007918050965231</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9508372506310317</v>
+        <v>0.8620043788586627</v>
       </c>
       <c r="F15" t="n">
-        <v>0.848063782041951</v>
+        <v>0.7979785991058186</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4648447334766388</v>
+        <v>0.4682333469390869</v>
       </c>
       <c r="H15" t="n">
-        <v>1.876303911209106</v>
+        <v>1.820677042007446</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7046090960502625</v>
+        <v>1.306206464767456</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1464554965496063</v>
+        <v>0.7972809076309204</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4255322813987732</v>
+        <v>1.051743626594543</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_9</t>
+          <t>model_1_2_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8899180822406164</v>
+        <v>0.8882279144432317</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7180105459057338</v>
+        <v>0.7275483346166429</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7453166485607027</v>
+        <v>0.6042060614899185</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9583094129981878</v>
+        <v>0.8620414184809519</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8586917796568152</v>
+        <v>0.7990720817476109</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4619902670383453</v>
+        <v>0.4690834879875183</v>
       </c>
       <c r="H16" t="n">
-        <v>1.885664701461792</v>
+        <v>1.821885466575623</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6673363447189331</v>
+        <v>1.295035004615784</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1241959780454636</v>
+        <v>0.797066867351532</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3957661390304565</v>
+        <v>1.046050786972046</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_8</t>
+          <t>model_1_2_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8905218689469183</v>
+        <v>0.8880105630159976</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7165259088811241</v>
+        <v>0.7273550649978424</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7596898871720155</v>
+        <v>0.6076380170351641</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9652637598225919</v>
+        <v>0.8620599466793226</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8691137891676446</v>
+        <v>0.8001608327627795</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4594562947750092</v>
+        <v>0.4699956774711609</v>
       </c>
       <c r="H17" t="n">
-        <v>1.895592570304871</v>
+        <v>1.823177933692932</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6296747326850891</v>
+        <v>1.28380560874939</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1034790277481079</v>
+        <v>0.7969598174095154</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3665769100189209</v>
+        <v>1.040382742881775</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_7</t>
+          <t>model_1_2_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8910351203349057</v>
+        <v>0.8877779380413769</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7149523231872881</v>
+        <v>0.7271489676073446</v>
       </c>
       <c r="D18" t="n">
-        <v>0.774137407586251</v>
+        <v>0.6110866322465156</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9716466512143903</v>
+        <v>0.8620596586020357</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8792667068356117</v>
+        <v>0.8012442888638381</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4573022723197937</v>
+        <v>0.4709719717502594</v>
       </c>
       <c r="H18" t="n">
-        <v>1.906115055084229</v>
+        <v>1.824556112289429</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5918185114860535</v>
+        <v>1.27252185344696</v>
       </c>
       <c r="J18" t="n">
-        <v>0.084464430809021</v>
+        <v>0.7969614863395691</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3381413221359253</v>
+        <v>1.034742116928101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_6</t>
+          <t>model_1_2_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8914422724809317</v>
+        <v>0.8875294426494259</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7132861959668466</v>
+        <v>0.7269296492873589</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7885720559605456</v>
+        <v>0.6145503535880494</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9774041615854253</v>
+        <v>0.8620397353787747</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8890808772610216</v>
+        <v>0.8023217774024223</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4555935263633728</v>
+        <v>0.4720148742198944</v>
       </c>
       <c r="H19" t="n">
-        <v>1.917256593704224</v>
+        <v>1.826022624969482</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5539959669113159</v>
+        <v>1.261188507080078</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06731284409761429</v>
+        <v>0.7970765829086304</v>
       </c>
       <c r="K19" t="n">
-        <v>0.310654491186142</v>
+        <v>1.029132604598999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_5</t>
+          <t>model_1_2_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8917272061555912</v>
+        <v>0.8872646251751388</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7115247288911781</v>
+        <v>0.7266967400803689</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8028972309055555</v>
+        <v>0.6180289072412317</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9824841251227189</v>
+        <v>0.8619995667418756</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8984835665680523</v>
+        <v>0.8033926240390921</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4543977379798889</v>
+        <v>0.4731262624263763</v>
       </c>
       <c r="H20" t="n">
-        <v>1.929035425186157</v>
+        <v>1.827580213546753</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5164602994918823</v>
+        <v>1.249806761741638</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05217967554926872</v>
+        <v>0.7973086833953857</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2843201160430908</v>
+        <v>1.023557662963867</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_4</t>
+          <t>model_1_2_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8918727680627737</v>
+        <v>0.8869826663098342</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7096659354665164</v>
+        <v>0.7264499213487987</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8170060284061721</v>
+        <v>0.6215207345467151</v>
       </c>
       <c r="E21" t="n">
-        <v>0.986837533023862</v>
+        <v>0.86193775789313</v>
       </c>
       <c r="F21" t="n">
-        <v>0.90739871692295</v>
+        <v>0.8044556306034876</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4537868797779083</v>
+        <v>0.4743095636367798</v>
       </c>
       <c r="H21" t="n">
-        <v>1.941465258598328</v>
+        <v>1.829230546951294</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4794915914535522</v>
+        <v>1.238381505012512</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03921090066432953</v>
+        <v>0.7976657748222351</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2593511641025543</v>
+        <v>1.018023610115051</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_3</t>
+          <t>model_1_2_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8918619863638589</v>
+        <v>0.8866831500357556</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7077088798638598</v>
+        <v>0.7261888124879452</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8307843312319542</v>
+        <v>0.6250248649003405</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9904203528433165</v>
+        <v>0.8618540563594033</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9157493512952447</v>
+        <v>0.8055103756516275</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4538320899009705</v>
+        <v>0.475566565990448</v>
       </c>
       <c r="H22" t="n">
-        <v>1.954552173614502</v>
+        <v>1.830976605415344</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4433889091014862</v>
+        <v>1.226915955543518</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02853770367801189</v>
+        <v>0.7981493473052979</v>
       </c>
       <c r="K22" t="n">
-        <v>0.235963299870491</v>
+        <v>1.012532472610474</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_2</t>
+          <t>model_1_2_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8916781536217273</v>
+        <v>0.8863654037902434</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7056538816213773</v>
+        <v>0.7259129841116192</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8441141279562971</v>
+        <v>0.6285401016980365</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9931955888243699</v>
+        <v>0.8617475127369323</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9234607175684835</v>
+        <v>0.8065558483619626</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4546036124229431</v>
+        <v>0.4769000709056854</v>
       </c>
       <c r="H23" t="n">
-        <v>1.968293905258179</v>
+        <v>1.832821130752563</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4084613919258118</v>
+        <v>1.2154141664505</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02027029544115067</v>
+        <v>0.7987649440765381</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2143658399581909</v>
+        <v>1.007089614868164</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_1</t>
+          <t>model_1_2_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8913052038571651</v>
+        <v>0.8860287803535517</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7035024742563459</v>
+        <v>0.7256220967619955</v>
       </c>
       <c r="D24" t="n">
-        <v>0.856875733647897</v>
+        <v>0.6320654179779834</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9951348496328059</v>
+        <v>0.8616170095147422</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9304616850831223</v>
+        <v>0.8075912734001074</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4561687707901001</v>
+        <v>0.4783127903938293</v>
       </c>
       <c r="H24" t="n">
-        <v>1.982680320739746</v>
+        <v>1.834766387939453</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3750226497650146</v>
+        <v>1.203879356384277</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01449324935674667</v>
+        <v>0.7995189428329468</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1947580277919769</v>
+        <v>1.001699090003967</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
+          <t>model_1_2_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8856726403464085</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7253157083255005</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6355997594534351</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8614618703952842</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8086157948526245</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.479807436466217</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.836815118789673</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.192314982414246</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8004152774810791</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9963653087615967</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>model_1_2_0</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.8907288467211233</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.701257556437584</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8689528543250654</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.996220237937025</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9366883947012808</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.458587646484375</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.997692108154297</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.3433774709701538</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.0112598855048418</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.1773186922073364</v>
+      <c r="B26" t="n">
+        <v>0.8852963129216824</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7249934519862067</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6391413215407057</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8612811295731087</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.8096284529153384</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4813868701457977</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.838970184326172</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.180727005004883</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8014594912528992</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9910932779312134</v>
       </c>
     </row>
   </sheetData>
